--- a/Audio系统/android4.1/media对外接口整理.xlsx
+++ b/Audio系统/android4.1/media对外接口整理.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="9120" windowHeight="3630" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="9120" windowHeight="3630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Android4.0.3" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="114">
   <si>
     <t>AudioRecord.java</t>
   </si>
@@ -727,104 +727,104 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -856,7 +856,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="表样式 1" pivot="0" count="2">
+    <tableStyle name="表样式 1" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1155,6 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1171,273 +1172,273 @@
   <sheetData>
     <row r="1" spans="2:4" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:4" ht="19.5">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="14"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="14"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="14"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="18"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="18"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="18"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="14"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="14"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="14"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="14"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="14"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="14"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="20"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="14"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="14"/>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="14"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="14"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="14"/>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="14"/>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="14"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="14"/>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="14"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="20"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="20"/>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="B33" s="20"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="B34" s="20"/>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="14.25" thickBot="1">
-      <c r="B35" s="22"/>
-      <c r="C35" s="23" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="24"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6"/>
@@ -1483,7 +1484,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="32" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -1492,154 +1493,154 @@
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="B46" s="9"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="B47" s="9"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="B48" s="9"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="9"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="9"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="9"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="9"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="9"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="9"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="9"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="9"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="9"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="9"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="9"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="9"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="9"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="9"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="9"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D63" s="5"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="9"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D64" s="5"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="9"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="9"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="33" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -1648,70 +1649,70 @@
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="10"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="10"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="10"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="10"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="10"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="10"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="10"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="10"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="10"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="10"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="2" t="s">
         <v>87</v>
       </c>
@@ -1736,10 +1737,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1753,426 +1755,426 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:5">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="14"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="33"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="33"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="33"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="33"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="33"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="32" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="33"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="32" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="35"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="35"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="18"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="32"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="18"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="32"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="18"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="32"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="14"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="32"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="20"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="32"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="20"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="20"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="32"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="20"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="32"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="20"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="32"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="20"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="32"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="20"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="32" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="14"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="32"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="20"/>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="37"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="20"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="32"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="20"/>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="32"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="20"/>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="32"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="20"/>
-      <c r="C36" s="13" t="s">
+      <c r="B36" s="37"/>
+      <c r="C36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="32"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="20"/>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="32"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="20"/>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="32"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="20"/>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="32"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="20"/>
-      <c r="C40" s="13" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="32"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="32"/>
+      <c r="E41" s="25"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="14"/>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="34"/>
+      <c r="C42" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="32"/>
+      <c r="E42" s="25"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="14"/>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="34"/>
+      <c r="C43" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="14"/>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="34"/>
+      <c r="C44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="14"/>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
     </row>
     <row r="46" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B46" s="38"/>
-      <c r="C46" s="39" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6"/>
@@ -2218,7 +2220,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="32" t="s">
         <v>75</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2227,154 +2229,154 @@
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="B57" s="9"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="B58" s="9"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="B59" s="9"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="B60" s="9"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="B61" s="9"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="B62" s="9"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="B63" s="9"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="B64" s="9"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="5"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="9"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="9"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="9"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="9"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="9"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="9"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="9"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="9"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="9"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="9"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="9"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="9"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="9"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D77" s="5"/>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="33" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2383,70 +2385,70 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" s="10"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="10"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D80" s="3"/>
     </row>
     <row r="81" spans="2:4">
-      <c r="B81" s="10"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="10"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="10"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="10"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="10"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="10"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="2:4">
-      <c r="B87" s="10"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="10"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="2" t="s">
         <v>87</v>
       </c>
@@ -2473,12 +2475,172 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B4:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="48.125" customWidth="1"/>
+    <col min="5" max="5" width="34.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" ht="14.25" thickBot="1"/>
+    <row r="5" spans="2:5">
+      <c r="B5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="2:5" ht="25.5">
+      <c r="B7" s="36"/>
+      <c r="C7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="2:5" ht="25.5">
+      <c r="B8" s="36"/>
+      <c r="C8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="2:5" ht="25.5">
+      <c r="B9" s="36"/>
+      <c r="C9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="25.5">
+      <c r="B11" s="34"/>
+      <c r="C11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="25.5">
+      <c r="B12" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="2:5" ht="25.5">
+      <c r="B13" s="37"/>
+      <c r="C13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="2:5" ht="25.5">
+      <c r="B14" s="37"/>
+      <c r="C14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="2:5" ht="38.25">
+      <c r="B15" s="37"/>
+      <c r="C15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="2:5" ht="25.5">
+      <c r="B16" s="37"/>
+      <c r="C16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="2:5" ht="25.5">
+      <c r="B17" s="37"/>
+      <c r="C17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="2:5" ht="25.5">
+      <c r="B18" s="37"/>
+      <c r="C18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="37"/>
+      <c r="C19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B19"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
